--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.973601718002</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H2">
-        <v>24.973601718002</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.479890924521289</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4807023781989444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>13.96938107488357</v>
+        <v>27.07351601751001</v>
       </c>
       <c r="R2">
-        <v>13.96938107488357</v>
+        <v>243.66164415759</v>
       </c>
       <c r="S2">
-        <v>0.0030684288305113</v>
+        <v>0.002223949336910966</v>
       </c>
       <c r="T2">
-        <v>0.0030684288305113</v>
+        <v>0.002228868789093076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.973601718002</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H3">
-        <v>24.973601718002</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.479890924521289</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4807023781989444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>1687.72862191626</v>
+        <v>2012.332389661584</v>
       </c>
       <c r="R3">
-        <v>1687.72862191626</v>
+        <v>18110.99150695425</v>
       </c>
       <c r="S3">
-        <v>0.3707161493989182</v>
+        <v>0.1653026995362511</v>
       </c>
       <c r="T3">
-        <v>0.3707161493989182</v>
+        <v>0.1656683547750849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>28.09534366666667</v>
+      </c>
+      <c r="H4">
+        <v>84.28603100000001</v>
+      </c>
+      <c r="I4">
+        <v>0.479890924521289</v>
+      </c>
+      <c r="J4">
+        <v>0.4807023781989444</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N4">
+        <v>405.066185</v>
+      </c>
+      <c r="O4">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P4">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q4">
+        <v>3793.491225106859</v>
+      </c>
+      <c r="R4">
+        <v>34141.42102596173</v>
+      </c>
+      <c r="S4">
+        <v>0.3116156870499411</v>
+      </c>
+      <c r="T4">
+        <v>0.312304991633546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>28.09534366666667</v>
+      </c>
+      <c r="H5">
+        <v>84.28603100000001</v>
+      </c>
+      <c r="I5">
+        <v>0.479890924521289</v>
+      </c>
+      <c r="J5">
+        <v>0.4807023781989444</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.324361</v>
+      </c>
+      <c r="N5">
+        <v>0.648722</v>
+      </c>
+      <c r="O5">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P5">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q5">
+        <v>9.113033767063667</v>
+      </c>
+      <c r="R5">
+        <v>54.67820260238201</v>
+      </c>
+      <c r="S5">
+        <v>0.0007485885981857951</v>
+      </c>
+      <c r="T5">
+        <v>0.0005001630012203988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H6">
+        <v>23.381704</v>
+      </c>
+      <c r="I6">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J6">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.89089</v>
+      </c>
+      <c r="O6">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P6">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q6">
+        <v>7.510437141840002</v>
+      </c>
+      <c r="R6">
+        <v>67.59393427656001</v>
+      </c>
+      <c r="S6">
+        <v>0.0006169435728519294</v>
+      </c>
+      <c r="T6">
+        <v>0.0006183082731871991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H7">
+        <v>23.381704</v>
+      </c>
+      <c r="I7">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J7">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N7">
+        <v>214.875363</v>
+      </c>
+      <c r="O7">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P7">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q7">
+        <v>558.2391260620614</v>
+      </c>
+      <c r="R7">
+        <v>5024.152134558552</v>
+      </c>
+      <c r="S7">
+        <v>0.04585645741175737</v>
+      </c>
+      <c r="T7">
+        <v>0.0459578934677565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H8">
+        <v>23.381704</v>
+      </c>
+      <c r="I8">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J8">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N8">
+        <v>405.066185</v>
+      </c>
+      <c r="O8">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P8">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q8">
+        <v>1052.348626453249</v>
+      </c>
+      <c r="R8">
+        <v>9471.137638079241</v>
+      </c>
+      <c r="S8">
+        <v>0.08644499770499761</v>
+      </c>
+      <c r="T8">
+        <v>0.08663621700371738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>24.973601718002</v>
-      </c>
-      <c r="H4">
-        <v>24.973601718002</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>114.157299768955</v>
-      </c>
-      <c r="N4">
-        <v>114.157299768955</v>
-      </c>
-      <c r="O4">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="P4">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="Q4">
-        <v>2850.918937632444</v>
-      </c>
-      <c r="R4">
-        <v>2850.918937632444</v>
-      </c>
-      <c r="S4">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="T4">
-        <v>0.6262154217705705</v>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H9">
+        <v>23.381704</v>
+      </c>
+      <c r="I9">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J9">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.324361</v>
+      </c>
+      <c r="N9">
+        <v>0.648722</v>
+      </c>
+      <c r="O9">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P9">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q9">
+        <v>2.528037630381334</v>
+      </c>
+      <c r="R9">
+        <v>15.168225782288</v>
+      </c>
+      <c r="S9">
+        <v>0.0002076652182205044</v>
+      </c>
+      <c r="T9">
+        <v>0.0001387497205353875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H10">
+        <v>67.078624</v>
+      </c>
+      <c r="I10">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J10">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.89089</v>
+      </c>
+      <c r="O10">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P10">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q10">
+        <v>21.54632481504001</v>
+      </c>
+      <c r="R10">
+        <v>193.91692333536</v>
+      </c>
+      <c r="S10">
+        <v>0.001769919162117148</v>
+      </c>
+      <c r="T10">
+        <v>0.001773834283986035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H11">
+        <v>67.078624</v>
+      </c>
+      <c r="I11">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J11">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N11">
+        <v>214.875363</v>
+      </c>
+      <c r="O11">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P11">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q11">
+        <v>1601.504853504501</v>
+      </c>
+      <c r="R11">
+        <v>14413.54368154051</v>
+      </c>
+      <c r="S11">
+        <v>0.1315553419329611</v>
+      </c>
+      <c r="T11">
+        <v>0.1318463468597368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H12">
+        <v>67.078624</v>
+      </c>
+      <c r="I12">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J12">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N12">
+        <v>405.066185</v>
+      </c>
+      <c r="O12">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P12">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q12">
+        <v>3019.031368747716</v>
+      </c>
+      <c r="R12">
+        <v>27171.28231872944</v>
+      </c>
+      <c r="S12">
+        <v>0.2479978147757921</v>
+      </c>
+      <c r="T12">
+        <v>0.2485463944447661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H13">
+        <v>67.078624</v>
+      </c>
+      <c r="I13">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J13">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.324361</v>
+      </c>
+      <c r="N13">
+        <v>0.648722</v>
+      </c>
+      <c r="O13">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P13">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q13">
+        <v>7.252563186421335</v>
+      </c>
+      <c r="R13">
+        <v>43.515379118528</v>
+      </c>
+      <c r="S13">
+        <v>0.0005957605609450519</v>
+      </c>
+      <c r="T13">
+        <v>0.0003980522691544779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2964835</v>
+      </c>
+      <c r="H14">
+        <v>0.592967</v>
+      </c>
+      <c r="I14">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J14">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.89089</v>
+      </c>
+      <c r="O14">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P14">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q14">
+        <v>0.2857003951050001</v>
+      </c>
+      <c r="R14">
+        <v>1.71420237063</v>
+      </c>
+      <c r="S14">
+        <v>2.346881002962551E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.568048256136482E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2964835</v>
+      </c>
+      <c r="H15">
+        <v>0.592967</v>
+      </c>
+      <c r="I15">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J15">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N15">
+        <v>214.875363</v>
+      </c>
+      <c r="O15">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P15">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q15">
+        <v>21.2356665620035</v>
+      </c>
+      <c r="R15">
+        <v>127.413999372021</v>
+      </c>
+      <c r="S15">
+        <v>0.00174440019312178</v>
+      </c>
+      <c r="T15">
+        <v>0.001165505910770882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2964835</v>
+      </c>
+      <c r="H16">
+        <v>0.592967</v>
+      </c>
+      <c r="I16">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J16">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N16">
+        <v>405.066185</v>
+      </c>
+      <c r="O16">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P16">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q16">
+        <v>40.03181342014916</v>
+      </c>
+      <c r="R16">
+        <v>240.190880520895</v>
+      </c>
+      <c r="S16">
+        <v>0.003288406457938607</v>
+      </c>
+      <c r="T16">
+        <v>0.002197120350511805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2964835</v>
+      </c>
+      <c r="H17">
+        <v>0.592967</v>
+      </c>
+      <c r="I17">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J17">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>0.09616768454350001</v>
+      </c>
+      <c r="R17">
+        <v>0.384670738174</v>
+      </c>
+      <c r="S17">
+        <v>7.899677978082209E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.518734371827951E-06</v>
       </c>
     </row>
   </sheetData>
